--- a/data/lusita 2.0/data clean/input modal dialog/price.xlsx
+++ b/data/lusita 2.0/data clean/input modal dialog/price.xlsx
@@ -122,7 +122,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-pilihannya bisa dropdown list tp harus cek dlu bisa copas dr file csv atau tidak (bisa kosong==belum didefinisikan)
+dropdownlist (bisa kosong==belum didefinisikan)
 </t>
         </r>
       </text>
@@ -132,7 +132,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="59">
   <si>
     <t>Grup</t>
   </si>
@@ -306,6 +306,9 @@
   </si>
   <si>
     <t>Semua isinya harus lowcase untuk mempermudah dropdown list</t>
+  </si>
+  <si>
+    <t>componen yang kosong atau tidak sesuai == belum terdefinisikan (di masukkan k dlm list dropdownnya)</t>
   </si>
 </sst>
 </file>
@@ -640,7 +643,7 @@
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -710,6 +713,9 @@
       <c r="D3" t="s">
         <v>5</v>
       </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
